--- a/SuppXLS/Scen_SUP_ZeroImpBIOW_from_2025.xlsx
+++ b/SuppXLS/Scen_SUP_ZeroImpBIOW_from_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ABBD90-8302-4882-900F-F4BDA6628D25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC09F7A4-4BC6-4129-8086-1FC458DF9E38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Attribute</t>
   </si>
@@ -66,9 +66,6 @@
     <t>UP</t>
   </si>
   <si>
-    <t>~UC_T:UC_RHSTS</t>
-  </si>
-  <si>
     <t>UC_ACT</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   <si>
     <t>IMPBIOW*</t>
   </si>
+  <si>
+    <t>~UC_T</t>
+  </si>
 </sst>
 </file>
 
@@ -91,10 +91,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -561,2364 +568,2264 @@
   </borders>
   <cellStyleXfs count="2405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2969,59 +2876,159 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2129" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2129" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2130" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2130" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" xfId="2129" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" xfId="2129" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="2129" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="2129" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2127" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2127" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2127" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2127" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2127" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2129" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="2404" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2129" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2404"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="2404" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" xfId="2404" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2129" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2129" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="2404" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2129" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2404"/>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="2404" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2404"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="2404" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2129" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2129" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2404" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2405">
     <cellStyle name="20% - Accent1 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5764,10 +5771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5781,13 +5788,12 @@
     <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5800,12 +5806,11 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5815,9 +5820,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -5830,32 +5834,30 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="15" t="s">
-        <v>11</v>
+      <c r="G4" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -5867,33 +5869,30 @@
       <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>12</v>
+      <c r="H5" s="14" t="s">
+        <v>11</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="2"/>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="18" t="s">
-        <v>16</v>
+      <c r="C6" s="12"/>
+      <c r="D6" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="6">
         <v>2025</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="6">
@@ -5902,80 +5901,73 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="7">
-        <v>5</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>14</v>
+      <c r="J6" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="2"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="H7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="2"/>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="2"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="6"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+    <row r="11" spans="1:10">
+      <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="15">
-      <c r="I12" s="11"/>
-      <c r="J12" s="8"/>
+    <row r="12" spans="1:10" ht="15">
+      <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="15">
-      <c r="I13" s="11"/>
-      <c r="J13" s="8"/>
+    <row r="13" spans="1:10" ht="15">
+      <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="15">
-      <c r="I14" s="11"/>
-      <c r="J14" s="8"/>
+    <row r="14" spans="1:10" ht="15">
+      <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="15">
-      <c r="I15" s="11"/>
-      <c r="J15" s="8"/>
+    <row r="15" spans="1:10" ht="15">
+      <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+    <row r="16" spans="1:10">
+      <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="9:10">
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+    <row r="17" spans="9:9">
+      <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="9:10">
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+    <row r="18" spans="9:9">
+      <c r="I18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
